--- a/medicine/Mort/Cimetière_Pierre-Grenier/Cimetière_Pierre-Grenier.xlsx
+++ b/medicine/Mort/Cimetière_Pierre-Grenier/Cimetière_Pierre-Grenier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Pierre-Grenier</t>
+          <t>Cimetière_Pierre-Grenier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Pierre-Grenier, appelé aussi « nouveau cimetière de Boulogne », est situé avenue Pierre-Grenier à Boulogne-Billancourt dans les Hauts-de-Seine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Pierre-Grenier, appelé aussi « nouveau cimetière de Boulogne », est situé avenue Pierre-Grenier à Boulogne-Billancourt dans les Hauts-de-Seine.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Pierre-Grenier</t>
+          <t>Cimetière_Pierre-Grenier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Pierre-Grenier est planté de cinq-cents arbres dont quatre-cent-trente-cinq platanes, sur une surface de sept hectares[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Pierre-Grenier est planté de cinq-cents arbres dont quatre-cent-trente-cinq platanes, sur une surface de sept hectares,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Pierre-Grenier</t>
+          <t>Cimetière_Pierre-Grenier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière fut créé en 1889[4], à cause de la saturation du cimetière de l'Ouest.
-À son ouverture, il fut surnommé par dérision « le cimetière aquatique », à cause des inondations de la Seine toute proche[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière fut créé en 1889, à cause de la saturation du cimetière de l'Ouest.
+À son ouverture, il fut surnommé par dérision « le cimetière aquatique », à cause des inondations de la Seine toute proche,.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Pierre-Grenier</t>
+          <t>Cimetière_Pierre-Grenier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hagop Arakelian (1894-1977), maquilleur du cinéma français entre les années 1930 et 1960.
 André Caille (1881-1940), général de brigade mort pour la France.
@@ -594,7 +612,7 @@
 Francis Pélissier (1894-1959), champion cycliste, premier entraîneur de Jacques Anquetil, et son frère Henri Pélissier (1889-1935).
 Perrette Pradier (née Chevau 1938-2013), comédienne et doubleuse.
 Emmanuel Roblès (1914-1995), écrivain, membre de l'académie Goncourt.
-Le zouave Messaoud El Asry (1882-1918), mort pour la France[7].
+Le zouave Messaoud El Asry (1882-1918), mort pour la France.
 Michel Deville (1931-2023), cinéaste français deux fois césarisé.
 			Sépulture de Paul Landowski et de sa famille.
 			Tombe de Francis Pélissier.
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Pierre-Grenier</t>
+          <t>Cimetière_Pierre-Grenier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,6 +646,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
